--- a/VR Karting/Results/3537.xlsx
+++ b/VR Karting/Results/3537.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="2160" windowWidth="20060" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="2160" windowWidth="20060" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,9 +14,11 @@
     <sheet name="Mini 3" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Session 4" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Mini 4" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Session 3" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Word Accuracies" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Contrast Accuracies" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="MID" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Session 3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Word Accuracies" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Contrast Accuracies" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1958,6 +1960,1481 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.7186928</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.6734085</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.036606</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.3760452</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.9193114999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.6977463</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.8114014000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.9546051</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.5826111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.349045</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.8436737</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.572998</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.9304352</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.044922</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.52771</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.777985</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.030289</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.183167</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.297195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.7170258</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.489975</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.272705</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.066971</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.264618</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.9397125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.7539825</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5031890999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.8659210000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.288574</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.5350037</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.8822327</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.344238</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.3456116</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.8869324</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.193787</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.5630493</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.6807860999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.8793945</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.6997375</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.43811</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.7217102</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.406006</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.172577</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.396271</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.9463501</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.068542</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.069336</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5512695</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.1466064</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.039063</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.7676697</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.7441101</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.886047</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.9421997</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.196594</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.304199</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.936195</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.179447</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.5282516</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.191483</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.412769</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.450123</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.230392</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.9840775</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.135345</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.544579</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2.073349</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.778183</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.66832</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.514763</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.738411</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2.452789</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.750534</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.7967529</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>3.435959</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>3.135254</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>2.35405</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.398911</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.148926</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.6591186999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.6511688</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>3.318253</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>3.352661</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.33139</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.98262</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>2.590454</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.9031219</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.41243</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.076141</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>3.809113</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.7765198</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.267822</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.576782</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.697479</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.215515</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.553009</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.336792</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.5567017</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.364929</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.552948</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.58078</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.9325561999999999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.017242</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.2897034</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.805481</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.6083374</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.8368225</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.7979431</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.4272156</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.6940002</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.745667</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.255066</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3062,7 +4539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3177,6 +4654,198 @@
       </c>
       <c r="E5" t="n">
         <v>0.6428571428571429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -8618,7 +10287,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -8715,10 +10384,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8726,1457 +10395,2161 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
+          <t>heed</t>
         </is>
       </c>
       <c r="B1" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="n">
-        <v>0.7186928</v>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>bought</t>
         </is>
       </c>
       <c r="B2" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0.6734085</v>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
+          <t>hud</t>
         </is>
       </c>
       <c r="B3" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1.036606</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
+          <t>bait</t>
         </is>
       </c>
       <c r="B4" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0.3760452</v>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>had</t>
         </is>
       </c>
       <c r="B5" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.9193114999999999</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
+          <t>hood</t>
         </is>
       </c>
       <c r="B6" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0.6977463</v>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
+          <t>bit</t>
         </is>
       </c>
       <c r="B7" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.8114014000000001</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
+          <t>hid</t>
         </is>
       </c>
       <c r="B8" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.9546051</v>
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
+          <t>who'd</t>
         </is>
       </c>
       <c r="B9" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0.5826111</v>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>had</t>
         </is>
       </c>
       <c r="B10" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>1.349045</v>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
+          <t>hud</t>
         </is>
       </c>
       <c r="B11" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.8436737</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
+          <t>bait</t>
         </is>
       </c>
       <c r="B12" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>0.572998</v>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>met</t>
+          <t>hid</t>
         </is>
       </c>
       <c r="B13" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>0.9304352</v>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>hood</t>
         </is>
       </c>
       <c r="B14" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>1.044922</v>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>bit</t>
         </is>
       </c>
       <c r="B15" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>0.52771</v>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>head</t>
         </is>
       </c>
       <c r="B16" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1.777985</v>
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B17" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>2.030289</v>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>hod</t>
         </is>
       </c>
       <c r="B18" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>1.183167</v>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B19" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>1.297195</v>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>heed</t>
         </is>
       </c>
       <c r="B20" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0.7170258</v>
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bought</t>
         </is>
       </c>
       <c r="B21" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>0.489975</v>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>head</t>
         </is>
       </c>
       <c r="B22" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>2.272705</v>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
+          <t>hod</t>
         </is>
       </c>
       <c r="B23" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1.066971</v>
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>who'd</t>
         </is>
       </c>
       <c r="B24" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <v>1.264618</v>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
+          <t>who'd</t>
         </is>
       </c>
       <c r="B25" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>0.9397125</v>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B26" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0.7539825</v>
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
+          <t>heed</t>
         </is>
       </c>
       <c r="B27" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>0.5031890999999999</v>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
+          <t>hid</t>
         </is>
       </c>
       <c r="B28" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C28" s="0" t="n">
-        <v>0.8659210000000001</v>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>hod</t>
         </is>
       </c>
       <c r="B29" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>1.288574</v>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>bait</t>
         </is>
       </c>
       <c r="B30" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C30" s="0" t="n">
-        <v>0.5350037</v>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>who'd</t>
         </is>
       </c>
       <c r="B31" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0.8822327</v>
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
+          <t>had</t>
         </is>
       </c>
       <c r="B32" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>1.344238</v>
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
+          <t>hood</t>
         </is>
       </c>
       <c r="B33" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C33" s="0" t="n">
-        <v>0.3456116</v>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
+          <t>hod</t>
         </is>
       </c>
       <c r="B34" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0.8869324</v>
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>bait</t>
         </is>
       </c>
       <c r="B35" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>1.193787</v>
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
+          <t>hud</t>
         </is>
       </c>
       <c r="B36" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0.5630493</v>
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B37" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C37" s="0" t="n">
-        <v>0.6807860999999999</v>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
+          <t>hid</t>
         </is>
       </c>
       <c r="B38" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0.8793945</v>
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
+          <t>bought</t>
         </is>
       </c>
       <c r="B39" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <v>0.6997375</v>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>bit</t>
         </is>
       </c>
       <c r="B40" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>1.43811</v>
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
+          <t>head</t>
         </is>
       </c>
       <c r="B41" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <v>0.7217102</v>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
+          <t>bought</t>
         </is>
       </c>
       <c r="B42" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>1.406006</v>
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
+          <t>bit</t>
         </is>
       </c>
       <c r="B43" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>1.172577</v>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
+          <t>hood</t>
         </is>
       </c>
       <c r="B44" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C44" s="0" t="n">
-        <v>1.396271</v>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>heed</t>
         </is>
       </c>
       <c r="B45" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C45" s="0" t="n">
-        <v>0.9463501</v>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>head</t>
         </is>
       </c>
       <c r="B46" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>1.068542</v>
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>hud</t>
         </is>
       </c>
       <c r="B47" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C47" s="0" t="n">
-        <v>1.069336</v>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>had</t>
         </is>
       </c>
       <c r="B48" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0.5512695</v>
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
+          <t>hud</t>
         </is>
       </c>
       <c r="B49" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C49" s="0" t="n">
-        <v>0.1466064</v>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
+          <t>bought</t>
         </is>
       </c>
       <c r="B50" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>1.039063</v>
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>should</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B51" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C51" s="0" t="n">
-        <v>0.7676697</v>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
+          <t>hud</t>
         </is>
       </c>
       <c r="B52" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>0.7441101</v>
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
+          <t>hid</t>
         </is>
       </c>
       <c r="B53" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C53" s="0" t="n">
-        <v>1.886047</v>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>hid</t>
         </is>
       </c>
       <c r="B54" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C54" s="0" t="n">
-        <v>0.9421997</v>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
+          <t>hood</t>
         </is>
       </c>
       <c r="B55" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>1.196594</v>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>head</t>
         </is>
       </c>
       <c r="B56" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>1.304199</v>
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
+          <t>who'd</t>
         </is>
       </c>
       <c r="B57" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="C57" s="0" t="n">
-        <v>2.936195</v>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>had</t>
         </is>
       </c>
       <c r="B58" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C58" s="0" t="n">
-        <v>1.179447</v>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>hod</t>
         </is>
       </c>
       <c r="B59" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>0.5282516</v>
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>heed</t>
         </is>
       </c>
       <c r="B60" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="C60" s="0" t="n">
-        <v>1.191483</v>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
+          <t>had</t>
         </is>
       </c>
       <c r="B61" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>1.412769</v>
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B62" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C62" s="0" t="n">
-        <v>1.450123</v>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>heed</t>
         </is>
       </c>
       <c r="B63" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>1.230392</v>
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
+          <t>hod</t>
         </is>
       </c>
       <c r="B64" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C64" s="0" t="n">
-        <v>0.9840775</v>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>who'd</t>
         </is>
       </c>
       <c r="B65" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C65" s="0" t="n">
-        <v>1.135345</v>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
+          <t>bit</t>
         </is>
       </c>
       <c r="B66" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C66" s="0" t="n">
-        <v>1.544579</v>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="inlineStr">
         <is>
-          <t>should</t>
+          <t>bit</t>
         </is>
       </c>
       <c r="B67" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>2.073349</v>
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>hood</t>
         </is>
       </c>
       <c r="B68" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>0.778183</v>
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
+          <t>bait</t>
         </is>
       </c>
       <c r="B69" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C69" s="0" t="n">
-        <v>1.66832</v>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
+          <t>bait</t>
         </is>
       </c>
       <c r="B70" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="C70" s="0" t="n">
-        <v>1.514763</v>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>bought</t>
         </is>
       </c>
       <c r="B71" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C71" s="0" t="n">
-        <v>1.738411</v>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>head</t>
         </is>
       </c>
       <c r="B72" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="C72" s="0" t="n">
-        <v>2.452789</v>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>head</t>
         </is>
       </c>
       <c r="B73" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>1.750534</v>
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
+          <t>bought</t>
         </is>
       </c>
       <c r="B74" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C74" s="0" t="n">
-        <v>0.7967529</v>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
+          <t>heed</t>
         </is>
       </c>
       <c r="B75" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C75" s="0" t="n">
-        <v>3.435959</v>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
+          <t>head</t>
         </is>
       </c>
       <c r="B76" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C76" s="0" t="n">
-        <v>3.135254</v>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B77" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C77" s="0" t="n">
-        <v>2.35405</v>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>hod</t>
         </is>
       </c>
       <c r="B78" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>1.398911</v>
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
+          <t>hid</t>
         </is>
       </c>
       <c r="B79" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C79" s="0" t="n">
-        <v>1.148926</v>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
+          <t>hood</t>
         </is>
       </c>
       <c r="B80" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C80" s="0" t="n">
-        <v>0.6591186999999999</v>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
+          <t>had</t>
         </is>
       </c>
       <c r="B81" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C81" s="0" t="n">
-        <v>0.6511688</v>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="inlineStr">
         <is>
-          <t>met</t>
+          <t>who'd</t>
         </is>
       </c>
       <c r="B82" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>3.318253</v>
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>bit</t>
         </is>
       </c>
       <c r="B83" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>3.352661</v>
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
+          <t>hod</t>
         </is>
       </c>
       <c r="B84" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>1.33139</v>
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
+          <t>hud</t>
         </is>
       </c>
       <c r="B85" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C85" s="0" t="n">
-        <v>1.98262</v>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
+          <t>hud</t>
         </is>
       </c>
       <c r="B86" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C86" s="0" t="n">
-        <v>2.590454</v>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>bait</t>
         </is>
       </c>
       <c r="B87" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C87" s="0" t="n">
-        <v>0.9031219</v>
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
+          <t>hood</t>
         </is>
       </c>
       <c r="B88" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C88" s="0" t="n">
-        <v>1.41243</v>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hid</t>
         </is>
       </c>
       <c r="B89" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C89" s="0" t="n">
-        <v>1.076141</v>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
+          <t>had</t>
         </is>
       </c>
       <c r="B90" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>3.809113</v>
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>bit</t>
         </is>
       </c>
       <c r="B91" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C91" s="0" t="n">
-        <v>0.7765198</v>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
+          <t>who'd</t>
         </is>
       </c>
       <c r="B92" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>1.267822</v>
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B93" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C93" s="0" t="n">
-        <v>1.576782</v>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>bought</t>
         </is>
       </c>
       <c r="B94" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C94" s="0" t="n">
-        <v>1.697479</v>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>bait</t>
         </is>
       </c>
       <c r="B95" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C95" s="0" t="n">
-        <v>1.215515</v>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>heed</t>
         </is>
       </c>
       <c r="B96" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C96" s="0" t="n">
-        <v>0.553009</v>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bit</t>
         </is>
       </c>
       <c r="B97" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C97" s="0" t="n">
-        <v>0.336792</v>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
+          <t>bought</t>
         </is>
       </c>
       <c r="B98" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C98" s="0" t="n">
-        <v>0.5567017</v>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
+          <t>heed</t>
         </is>
       </c>
       <c r="B99" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>1.364929</v>
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
+          <t>bait</t>
         </is>
       </c>
       <c r="B100" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C100" s="0" t="n">
-        <v>0.552948</v>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
+          <t>hod</t>
         </is>
       </c>
       <c r="B101" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C101" s="0" t="n">
-        <v>0.58078</v>
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
+          <t>bait</t>
         </is>
       </c>
       <c r="B102" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C102" s="0" t="n">
-        <v>0.9325561999999999</v>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B103" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C103" s="0" t="n">
-        <v>1.017242</v>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
+          <t>hid</t>
         </is>
       </c>
       <c r="B104" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C104" s="0" t="n">
-        <v>0.2897034</v>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
+          <t>hud</t>
         </is>
       </c>
       <c r="B105" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>0.805481</v>
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
+          <t>hid</t>
         </is>
       </c>
       <c r="B106" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C106" s="0" t="n">
-        <v>0.6083374</v>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>heed</t>
         </is>
       </c>
       <c r="B107" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C107" s="0" t="n">
-        <v>0.8368225</v>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>had</t>
         </is>
       </c>
       <c r="B108" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="C108" s="0" t="n">
-        <v>0.7979431</v>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
+          <t>who'd</t>
         </is>
       </c>
       <c r="B109" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C109" s="0" t="n">
-        <v>0.4272156</v>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B110" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C110" s="0" t="n">
-        <v>0.6940002</v>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>hud</t>
         </is>
       </c>
       <c r="B111" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C111" s="0" t="n">
-        <v>1.745667</v>
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
+          <t>head</t>
         </is>
       </c>
       <c r="B112" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="C112" s="0" t="n">
-        <v>1.255066</v>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/VR Karting/Results/3537.xlsx
+++ b/VR Karting/Results/3537.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1340" yWindow="760" windowWidth="20060" windowHeight="17440" tabRatio="600" firstSheet="8" activeTab="14" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1340" yWindow="760" windowWidth="20060" windowHeight="17440" tabRatio="600" firstSheet="9" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,9 +22,12 @@
     <sheet name="Mini 6" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Session 7" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Mini 7" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Contrast Accuracies" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Evaluation Word Accuracies" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Session 8" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Mini 8" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="POST" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Word Accuracies" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Contrast Accuracies" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -34,7 +37,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
@@ -58,13 +61,6 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -76,27 +72,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -126,7 +107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -134,9 +115,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -8040,7 +8018,7 @@
   </sheetPr>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
@@ -9612,950 +9590,441 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Session 5</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Session 6</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>Session 7</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.228012</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
+        <v>2.142204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
+        <v>0.5977325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
+        <v>2.446815</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
+        <v>0.9948882999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.5</v>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.5</v>
+        <v>0.8598633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>1.266724</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.5</v>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.5</v>
+        <v>1.048248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
+        <v>0.8947144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
+        <v>0.7677612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
+        <v>1.40831</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
+        <v>1.32225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.5</v>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
+        <v>1.375961</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0.5</v>
+        <v>0.5354614</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.5</v>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
+        <v>0.7098694</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
+        <v>0.9230042000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>1</v>
+        <v>1.964432</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0.5</v>
+        <v>1.490479</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.5</v>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>1</v>
+        <v>1.188843</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>1</v>
+        <v>2.463394</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0.5</v>
+        <v>2.593109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0.5</v>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>1</v>
+        <v>0.9190216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0.5</v>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>1</v>
+        <v>0.674057</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0.5</v>
+        <v>1.747955</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>1</v>
+        <v>1.190063</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0.5</v>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>1</v>
+        <v>1.730621</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0.5</v>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>1</v>
+        <v>2.314758</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0.5</v>
+        <v>0.9050598</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>1</v>
+        <v>1.583496</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>1</v>
+        <v>0.9871216</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>1</v>
+        <v>1.67514</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.5</v>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>1</v>
+        <v>2.092926</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>1</v>
+        <v>0.9675598</v>
       </c>
     </row>
     <row r="34">
@@ -10564,674 +10033,1029 @@
           <t>men</t>
         </is>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>0.5</v>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>1</v>
+        <v>2.314728</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0.5</v>
+        <v>0.574707</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>1</v>
+        <v>1.650085</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0.5</v>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0.5</v>
+        <v>1.513611</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>1</v>
+        <v>1.079681</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0.5</v>
+        <v>0.7867737</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0.5</v>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0.5</v>
+        <v>1.005829</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0.5</v>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>0.5</v>
+        <v>1.657135</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0.5</v>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>1</v>
+        <v>1.634644</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.5</v>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>1</v>
+        <v>1.320831</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.5</v>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>0.5</v>
+        <v>1.766632</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.5</v>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>1</v>
+        <v>0.3836365</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="n">
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>1</v>
+        <v>1.049561</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>1</v>
+        <v>1.412933</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.5</v>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>0.5</v>
+        <v>1.615265</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0.5</v>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>1</v>
+        <v>1.580017</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>0.5</v>
+        <v>1.530457</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0.5</v>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>1</v>
+        <v>2.709198</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0</v>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>0</v>
+        <v>1.212341</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>0.5</v>
+        <v>2.165161</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>0</v>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>1</v>
+        <v>2.497559</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>0.5</v>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>1</v>
+        <v>4.201508</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>0.5</v>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>1</v>
+        <v>1.572113</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.343843</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.9779854</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.076221</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2.595768</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.9762497</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.8572807</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
           <t>would</t>
         </is>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>1</v>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.5324326</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2.337837</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.847229</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>2.04464</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.913055</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>3.075775</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.619423</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.693787</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.774277</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2.762543</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.617569</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.410187</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.305649</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2.454025</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>2.087814</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.4614258</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.787766</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2.034073</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.980621</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.9111633</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2.178146</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2.101013</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>2.449265</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>3.521957</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2.407242</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>3.365082</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>2.424698</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.225189</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.927307</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.689209</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.387909</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.870819</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>2.74118</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.910004</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.570526</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.591431</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.100891</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>2.189819</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>2.445953</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>2.030243</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>2.000305</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>2.621857</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.469818</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.7772217</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.6734314</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.754089</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>2.457977</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>2.014435</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.8573608</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.137238</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11241,170 +11065,96 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Session 5</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Session 6</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>Session 7</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8571428571428571</v>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9285714285714286</v>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8928571428571429</v>
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5357142857142857</v>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11414,189 +11164,2896 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>MID</t>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bait</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.9166666666666666</v>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bit</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>boat</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bought</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>had</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.4166666666666667</v>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>head</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.25</v>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>heed</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.8333333333333334</v>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>hid</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.9166666666666666</v>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>hod</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.3333333333333333</v>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>hood</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.6666666666666666</v>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>hud</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.8333333333333334</v>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
           <t>who'd</t>
         </is>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.8333333333333334</v>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14496,6 +16953,2190 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
